--- a/config_3.2/rank_server.xlsx
+++ b/config_3.2/rank_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="298">
   <si>
     <t>id|</t>
   </si>
@@ -1240,67 +1240,91 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>5000福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1500福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>240福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxlzb_004_rank</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ycs_005_jybb_rank</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>金元宝榜</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fish_drop_act_1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>nyx_006_yxbd_rank</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>元宵榜单</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fish_drop_act_2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>50万福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>30万福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>10万福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2万福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_gold_sum</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>more</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>source_add</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>nsj_007_mgbd_rank</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>玫瑰榜单</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>15000福利券</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>5000福利券</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>1500福利券</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>500福利券</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>240福利券</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>xxlzb_004_rank</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>ycs_005_jybb_rank</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>金元宝榜</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_fish_drop_act_1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>nyx_006_yxbd_rank</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>元宵榜单</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_fish_drop_act_2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>50万福利券</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>30万福利券</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>10万福利券</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>2万福利券</t>
+    <t>1000福利券</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -1308,19 +1332,23 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>more</t>
+    <t>50000福利券</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>source_add</t>
+    <t>shop_gold_sum</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>nsj_007_mgbd_rank</t>
+    <t>shop_gold_sum</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>玫瑰榜单</t>
+    <t>1000福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>500福利券</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -2974,7 +3002,7 @@
         <v>1</v>
       </c>
       <c r="C32" s="27" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D32" s="26" t="s">
         <v>264</v>
@@ -2986,10 +3014,10 @@
         <v>1613404799</v>
       </c>
       <c r="G32" s="27" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H32" s="26" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="I32" s="26">
         <v>31</v>
@@ -3009,10 +3037,10 @@
         <v>1</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D33" s="27" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E33" s="26">
         <v>1613433600</v>
@@ -3044,10 +3072,10 @@
         <v>1</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D34" s="27" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E34" s="26">
         <v>1614038400</v>
@@ -3079,10 +3107,10 @@
         <v>1</v>
       </c>
       <c r="C35" s="34" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D35" s="35" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E35" s="33">
         <v>1614643200</v>
@@ -5048,7 +5076,7 @@
         <v>245</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E54" s="5">
         <v>2</v>
@@ -5082,7 +5110,7 @@
         <v>245</v>
       </c>
       <c r="D56" s="20" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E56" s="5">
         <v>2</v>
@@ -5116,7 +5144,7 @@
         <v>245</v>
       </c>
       <c r="D58" s="34" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E58" s="36">
         <v>2</v>
@@ -6561,7 +6589,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
     </sheetView>
@@ -11979,9 +12007,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G209"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E190" sqref="E190"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I189" sqref="I189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -14030,7 +14058,7 @@
         <v>204</v>
       </c>
       <c r="D103" s="20" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E103" s="5">
         <v>9000</v>
@@ -14247,7 +14275,7 @@
         <v>109</v>
       </c>
       <c r="C114" s="24" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D114" s="24" t="s">
         <v>127</v>
@@ -14267,7 +14295,7 @@
         <v>110</v>
       </c>
       <c r="C115" s="24" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D115" s="24" t="s">
         <v>127</v>
@@ -14287,7 +14315,7 @@
         <v>111</v>
       </c>
       <c r="C116" s="24" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D116" s="24" t="s">
         <v>127</v>
@@ -14327,7 +14355,7 @@
         <v>113</v>
       </c>
       <c r="C118" s="24" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D118" s="24" t="s">
         <v>127</v>
@@ -15467,13 +15495,13 @@
         <v>170</v>
       </c>
       <c r="C175" s="20" t="s">
-        <v>224</v>
+        <v>269</v>
       </c>
       <c r="D175" s="20" t="s">
         <v>158</v>
       </c>
       <c r="E175" s="5">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="F175" s="5">
         <v>1</v>
@@ -15487,13 +15515,13 @@
         <v>171</v>
       </c>
       <c r="C176" s="20" t="s">
-        <v>225</v>
+        <v>289</v>
       </c>
       <c r="D176" s="20" t="s">
         <v>158</v>
       </c>
       <c r="E176" s="5">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="F176" s="5">
         <v>1</v>
@@ -15507,13 +15535,13 @@
         <v>172</v>
       </c>
       <c r="C177" s="20" t="s">
-        <v>226</v>
+        <v>270</v>
       </c>
       <c r="D177" s="20" t="s">
         <v>158</v>
       </c>
       <c r="E177" s="5">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="F177" s="5">
         <v>1</v>
@@ -15527,13 +15555,13 @@
         <v>173</v>
       </c>
       <c r="C178" s="20" t="s">
-        <v>227</v>
+        <v>290</v>
       </c>
       <c r="D178" s="20" t="s">
         <v>158</v>
       </c>
       <c r="E178" s="5">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="F178" s="5">
         <v>1</v>
@@ -15547,13 +15575,13 @@
         <v>174</v>
       </c>
       <c r="C179" s="20" t="s">
-        <v>228</v>
+        <v>291</v>
       </c>
       <c r="D179" s="20" t="s">
         <v>158</v>
       </c>
       <c r="E179" s="5">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="F179" s="5">
         <v>1</v>
@@ -15567,13 +15595,13 @@
         <v>175</v>
       </c>
       <c r="C180" s="20" t="s">
-        <v>163</v>
+        <v>231</v>
       </c>
       <c r="D180" s="20" t="s">
         <v>158</v>
       </c>
       <c r="E180" s="5">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F180" s="5">
         <v>1</v>
@@ -15587,13 +15615,13 @@
         <v>176</v>
       </c>
       <c r="C181" s="20" t="s">
-        <v>231</v>
+        <v>272</v>
       </c>
       <c r="D181" s="20" t="s">
-        <v>158</v>
+        <v>292</v>
       </c>
       <c r="E181" s="5">
-        <v>500</v>
+        <v>240</v>
       </c>
       <c r="F181" s="5">
         <v>1</v>
@@ -15607,10 +15635,10 @@
         <v>177</v>
       </c>
       <c r="C182" s="20" t="s">
-        <v>269</v>
+        <v>293</v>
       </c>
       <c r="D182" s="20" t="s">
-        <v>158</v>
+        <v>294</v>
       </c>
       <c r="E182" s="5">
         <v>50000</v>
@@ -15627,10 +15655,10 @@
         <v>178</v>
       </c>
       <c r="C183" s="20" t="s">
-        <v>270</v>
+        <v>289</v>
       </c>
       <c r="D183" s="20" t="s">
-        <v>158</v>
+        <v>295</v>
       </c>
       <c r="E183" s="5">
         <v>15000</v>
@@ -15647,7 +15675,7 @@
         <v>179</v>
       </c>
       <c r="C184" s="20" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D184" s="20" t="s">
         <v>158</v>
@@ -15667,10 +15695,10 @@
         <v>180</v>
       </c>
       <c r="C185" s="20" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D185" s="20" t="s">
-        <v>158</v>
+        <v>294</v>
       </c>
       <c r="E185" s="5">
         <v>1500</v>
@@ -15687,7 +15715,7 @@
         <v>181</v>
       </c>
       <c r="C186" s="20" t="s">
-        <v>163</v>
+        <v>296</v>
       </c>
       <c r="D186" s="20" t="s">
         <v>158</v>
@@ -15707,10 +15735,10 @@
         <v>182</v>
       </c>
       <c r="C187" s="20" t="s">
-        <v>273</v>
+        <v>297</v>
       </c>
       <c r="D187" s="20" t="s">
-        <v>158</v>
+        <v>292</v>
       </c>
       <c r="E187" s="5">
         <v>500</v>
@@ -15727,10 +15755,10 @@
         <v>183</v>
       </c>
       <c r="C188" s="20" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D188" s="20" t="s">
-        <v>158</v>
+        <v>295</v>
       </c>
       <c r="E188" s="5">
         <v>240</v>

--- a/config_3.2/rank_server.xlsx
+++ b/config_3.2/rank_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="291">
   <si>
     <t>id|</t>
   </si>
@@ -1313,6 +1313,14 @@
   </si>
   <si>
     <t>source_add</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>nsj_007_mgbd_rank</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>玫瑰榜单</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1377,7 +1385,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1410,19 +1418,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1455,7 +1457,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1521,19 +1523,10 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1542,45 +1535,29 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1857,16 +1834,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U34"/>
+  <dimension ref="A1:U35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G32" sqref="G32"/>
+      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.125" style="27" customWidth="1"/>
+    <col min="1" max="1" width="13.125" style="26" customWidth="1"/>
     <col min="2" max="2" width="13.125" style="14" customWidth="1"/>
     <col min="3" max="3" width="36" style="14" customWidth="1"/>
     <col min="4" max="4" width="29.375" style="14" customWidth="1"/>
@@ -1889,7 +1866,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="56.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -1936,7 +1913,7 @@
       <c r="U1" s="3"/>
     </row>
     <row r="2" spans="1:21" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="27">
+      <c r="A2" s="26">
         <v>1</v>
       </c>
       <c r="B2" s="14" t="b">
@@ -1970,7 +1947,7 @@
       <c r="R2" s="16"/>
     </row>
     <row r="3" spans="1:21" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="27">
+      <c r="A3" s="26">
         <v>2</v>
       </c>
       <c r="B3" s="14" t="b">
@@ -2010,7 +1987,7 @@
       <c r="R3" s="16"/>
     </row>
     <row r="4" spans="1:21" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="27">
+      <c r="A4" s="26">
         <v>3</v>
       </c>
       <c r="B4" s="14" t="b">
@@ -2044,7 +2021,7 @@
       <c r="R4" s="16"/>
     </row>
     <row r="5" spans="1:21" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="27">
+      <c r="A5" s="26">
         <v>4</v>
       </c>
       <c r="B5" s="14" t="b">
@@ -2081,7 +2058,7 @@
       <c r="R5" s="16"/>
     </row>
     <row r="6" spans="1:21" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="27">
+      <c r="A6" s="26">
         <v>5</v>
       </c>
       <c r="B6" s="14" t="b">
@@ -2118,7 +2095,7 @@
       <c r="R6" s="16"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A7" s="27">
+      <c r="A7" s="26">
         <v>6</v>
       </c>
       <c r="B7" s="14" t="b">
@@ -2153,7 +2130,7 @@
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A8" s="27">
+      <c r="A8" s="26">
         <v>7</v>
       </c>
       <c r="B8" s="14" t="b">
@@ -2188,7 +2165,7 @@
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A9" s="27">
+      <c r="A9" s="26">
         <v>8</v>
       </c>
       <c r="B9" s="14" t="b">
@@ -2223,7 +2200,7 @@
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A10" s="27">
+      <c r="A10" s="26">
         <v>9</v>
       </c>
       <c r="B10" s="14" t="b">
@@ -2258,7 +2235,7 @@
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A11" s="27">
+      <c r="A11" s="26">
         <v>10</v>
       </c>
       <c r="B11" s="14" t="b">
@@ -2293,7 +2270,7 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A12" s="27">
+      <c r="A12" s="26">
         <v>11</v>
       </c>
       <c r="B12" s="14" t="b">
@@ -2328,16 +2305,16 @@
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A13" s="27">
+      <c r="A13" s="26">
         <v>12</v>
       </c>
       <c r="B13" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="25" t="s">
         <v>165</v>
       </c>
       <c r="E13" s="14">
@@ -2363,16 +2340,16 @@
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A14" s="27">
+      <c r="A14" s="26">
         <v>13</v>
       </c>
       <c r="B14" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="25" t="s">
         <v>168</v>
       </c>
       <c r="E14" s="14">
@@ -2397,701 +2374,736 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="27">
+    <row r="15" spans="1:21" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="26">
         <v>14</v>
       </c>
-      <c r="B15" s="27" t="b">
+      <c r="B15" s="26" t="b">
         <v>0</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="D15" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="E15" s="27">
+      <c r="E15" s="26">
         <v>1598311800</v>
       </c>
-      <c r="F15" s="27">
+      <c r="F15" s="26">
         <v>1598889599</v>
       </c>
-      <c r="G15" s="27" t="s">
+      <c r="G15" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="H15" s="30" t="s">
+      <c r="H15" s="27" t="s">
         <v>192</v>
       </c>
-      <c r="I15" s="27">
+      <c r="I15" s="26">
         <v>15</v>
       </c>
-      <c r="K15" s="27">
+      <c r="K15" s="26">
         <v>14</v>
       </c>
-      <c r="L15" s="27">
+      <c r="L15" s="26">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="27">
+    <row r="16" spans="1:21" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="26">
         <v>15</v>
       </c>
-      <c r="B16" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="C16" s="30" t="s">
+      <c r="B16" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="C16" s="27" t="s">
         <v>208</v>
       </c>
-      <c r="D16" s="30" t="s">
+      <c r="D16" s="27" t="s">
         <v>186</v>
       </c>
-      <c r="E16" s="27">
+      <c r="E16" s="26">
         <v>1604246400</v>
       </c>
-      <c r="F16" s="27">
+      <c r="F16" s="26">
         <v>2555555555</v>
       </c>
-      <c r="G16" s="30" t="s">
+      <c r="G16" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="H16" s="30" t="s">
+      <c r="H16" s="27" t="s">
         <v>193</v>
       </c>
-      <c r="I16" s="27">
+      <c r="I16" s="26">
         <v>16</v>
       </c>
-      <c r="K16" s="27">
+      <c r="K16" s="26">
         <v>15</v>
       </c>
-      <c r="L16" s="27">
+      <c r="L16" s="26">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="27">
+    <row r="17" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="26">
         <v>16</v>
       </c>
-      <c r="B17" s="27" t="b">
+      <c r="B17" s="26" t="b">
         <v>0</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="27" t="s">
         <v>182</v>
       </c>
-      <c r="D17" s="30" t="s">
+      <c r="D17" s="27" t="s">
         <v>187</v>
       </c>
-      <c r="E17" s="27">
+      <c r="E17" s="26">
         <v>1604332800</v>
       </c>
-      <c r="F17" s="27">
+      <c r="F17" s="26">
         <v>2555555555</v>
       </c>
-      <c r="G17" s="30" t="s">
+      <c r="G17" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="H17" s="30" t="s">
+      <c r="H17" s="27" t="s">
         <v>193</v>
       </c>
-      <c r="I17" s="27">
+      <c r="I17" s="26">
         <v>17</v>
       </c>
-      <c r="K17" s="27">
+      <c r="K17" s="26">
         <v>16</v>
       </c>
-      <c r="L17" s="27">
+      <c r="L17" s="26">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="27">
+    <row r="18" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="26">
         <v>17</v>
       </c>
-      <c r="B18" s="27" t="b">
+      <c r="B18" s="26" t="b">
         <v>0</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="27" t="s">
         <v>183</v>
       </c>
-      <c r="D18" s="30" t="s">
+      <c r="D18" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="E18" s="27">
+      <c r="E18" s="26">
         <v>1604332800</v>
       </c>
-      <c r="F18" s="27">
+      <c r="F18" s="26">
         <v>2555555555</v>
       </c>
-      <c r="G18" s="30" t="s">
+      <c r="G18" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="H18" s="30" t="s">
+      <c r="H18" s="27" t="s">
         <v>193</v>
       </c>
-      <c r="I18" s="27">
+      <c r="I18" s="26">
         <v>18</v>
       </c>
-      <c r="K18" s="27">
+      <c r="K18" s="26">
         <v>17</v>
       </c>
-      <c r="L18" s="27">
+      <c r="L18" s="26">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="27">
+    <row r="19" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="26">
         <v>18</v>
       </c>
-      <c r="B19" s="27" t="b">
+      <c r="B19" s="26" t="b">
         <v>0</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="27" t="s">
         <v>184</v>
       </c>
-      <c r="D19" s="30" t="s">
+      <c r="D19" s="27" t="s">
         <v>189</v>
       </c>
-      <c r="E19" s="27">
+      <c r="E19" s="26">
         <v>1604332800</v>
       </c>
-      <c r="F19" s="27">
+      <c r="F19" s="26">
         <v>2555555555</v>
       </c>
-      <c r="G19" s="30" t="s">
+      <c r="G19" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="H19" s="30" t="s">
+      <c r="H19" s="27" t="s">
         <v>193</v>
       </c>
-      <c r="I19" s="27">
+      <c r="I19" s="26">
         <v>19</v>
       </c>
-      <c r="K19" s="27">
+      <c r="K19" s="26">
         <v>18</v>
       </c>
-      <c r="L19" s="27">
+      <c r="L19" s="26">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="27">
+    <row r="20" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="26">
         <v>19</v>
       </c>
-      <c r="B20" s="27" t="b">
+      <c r="B20" s="26" t="b">
         <v>0</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="27" t="s">
         <v>185</v>
       </c>
-      <c r="D20" s="30" t="s">
+      <c r="D20" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="E20" s="27">
+      <c r="E20" s="26">
         <v>1604332800</v>
       </c>
-      <c r="F20" s="27">
+      <c r="F20" s="26">
         <v>2555555555</v>
       </c>
-      <c r="G20" s="30" t="s">
+      <c r="G20" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="H20" s="30" t="s">
+      <c r="H20" s="27" t="s">
         <v>193</v>
       </c>
-      <c r="I20" s="27">
+      <c r="I20" s="26">
         <v>20</v>
       </c>
-      <c r="K20" s="27">
+      <c r="K20" s="26">
         <v>19</v>
       </c>
-      <c r="L20" s="27">
+      <c r="L20" s="26">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="27">
+    <row r="21" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="26">
         <v>20</v>
       </c>
-      <c r="B21" s="27" t="b">
+      <c r="B21" s="26" t="b">
         <v>0</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="C21" s="26" t="s">
         <v>223</v>
       </c>
-      <c r="D21" s="27" t="s">
+      <c r="D21" s="26" t="s">
         <v>221</v>
       </c>
-      <c r="E21" s="27">
+      <c r="E21" s="26">
         <v>1607385600</v>
       </c>
-      <c r="F21" s="27">
+      <c r="F21" s="26">
         <v>1607961599</v>
       </c>
-      <c r="G21" s="27" t="s">
+      <c r="G21" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="H21" s="27" t="s">
+      <c r="H21" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="I21" s="27">
+      <c r="I21" s="26">
         <v>21</v>
       </c>
-      <c r="K21" s="27">
+      <c r="K21" s="26">
         <v>20</v>
       </c>
-      <c r="L21" s="27">
+      <c r="L21" s="26">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="27">
+    <row r="22" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="26">
         <v>21</v>
       </c>
-      <c r="B22" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="C22" s="30" t="s">
+      <c r="B22" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="C22" s="27" t="s">
         <v>216</v>
       </c>
-      <c r="D22" s="30" t="s">
+      <c r="D22" s="27" t="s">
         <v>217</v>
       </c>
-      <c r="E22" s="27">
+      <c r="E22" s="26">
         <v>1604246400</v>
       </c>
-      <c r="F22" s="27">
+      <c r="F22" s="26">
         <v>2555555555</v>
       </c>
-      <c r="G22" s="27" t="s">
+      <c r="G22" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="H22" s="27" t="s">
+      <c r="H22" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="K22" s="27">
+      <c r="K22" s="26">
         <v>21</v>
       </c>
-      <c r="L22" s="27">
+      <c r="L22" s="26">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="27">
+    <row r="23" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="26">
         <v>22</v>
       </c>
-      <c r="B23" s="27" t="b">
+      <c r="B23" s="26" t="b">
         <v>0</v>
       </c>
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="26" t="s">
         <v>220</v>
       </c>
-      <c r="D23" s="27" t="s">
+      <c r="D23" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="E23" s="27">
+      <c r="E23" s="26">
         <v>1607990400</v>
       </c>
-      <c r="F23" s="27">
+      <c r="F23" s="26">
         <v>1608566399</v>
       </c>
-      <c r="G23" s="27" t="s">
+      <c r="G23" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="H23" s="27" t="s">
+      <c r="H23" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="27">
+      <c r="I23" s="26">
         <v>22</v>
       </c>
-      <c r="K23" s="27">
+      <c r="K23" s="26">
         <v>22</v>
       </c>
-      <c r="L23" s="27">
+      <c r="L23" s="26">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="27">
+    <row r="24" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="26">
         <v>23</v>
       </c>
-      <c r="B24" s="27" t="b">
+      <c r="B24" s="26" t="b">
         <v>0</v>
       </c>
-      <c r="C24" s="27" t="s">
+      <c r="C24" s="26" t="s">
         <v>238</v>
       </c>
-      <c r="D24" s="27" t="s">
+      <c r="D24" s="26" t="s">
         <v>239</v>
       </c>
-      <c r="E24" s="41">
+      <c r="E24" s="31">
         <v>1608595200</v>
       </c>
-      <c r="F24" s="41">
+      <c r="F24" s="31">
         <v>1609171199</v>
       </c>
-      <c r="G24" s="27" t="s">
+      <c r="G24" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="H24" s="27" t="s">
+      <c r="H24" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="I24" s="27">
+      <c r="I24" s="26">
         <v>23</v>
       </c>
-      <c r="K24" s="27">
+      <c r="K24" s="26">
         <v>23</v>
       </c>
-      <c r="L24" s="27">
+      <c r="L24" s="26">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="27">
+    <row r="25" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="26">
         <v>24</v>
       </c>
-      <c r="B25" s="27" t="b">
+      <c r="B25" s="26" t="b">
         <v>0</v>
       </c>
-      <c r="C25" s="27" t="s">
+      <c r="C25" s="26" t="s">
         <v>241</v>
       </c>
-      <c r="D25" s="27" t="s">
+      <c r="D25" s="26" t="s">
         <v>240</v>
       </c>
-      <c r="E25" s="41">
+      <c r="E25" s="31">
         <v>1609200000</v>
       </c>
-      <c r="F25" s="41">
+      <c r="F25" s="31">
         <v>1609775999</v>
       </c>
-      <c r="G25" s="27" t="s">
+      <c r="G25" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="H25" s="27" t="s">
+      <c r="H25" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="I25" s="27">
+      <c r="I25" s="26">
         <v>24</v>
       </c>
-      <c r="K25" s="27">
+      <c r="K25" s="26">
         <v>24</v>
       </c>
-      <c r="L25" s="27">
+      <c r="L25" s="26">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="27">
+    <row r="26" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="26">
         <v>25</v>
       </c>
-      <c r="B26" s="27" t="b">
+      <c r="B26" s="26" t="b">
         <v>0</v>
       </c>
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="26" t="s">
         <v>250</v>
       </c>
-      <c r="D26" s="27" t="s">
+      <c r="D26" s="26" t="s">
         <v>251</v>
       </c>
-      <c r="E26" s="41">
+      <c r="E26" s="31">
         <v>1609804800</v>
       </c>
-      <c r="F26" s="41">
+      <c r="F26" s="31">
         <v>1610380799</v>
       </c>
-      <c r="G26" s="27" t="s">
+      <c r="G26" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="H26" s="27" t="s">
+      <c r="H26" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="I26" s="27">
+      <c r="I26" s="26">
         <v>25</v>
       </c>
-      <c r="K26" s="27">
+      <c r="K26" s="26">
         <v>25</v>
       </c>
-      <c r="L26" s="27">
+      <c r="L26" s="26">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="27">
+    <row r="27" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="26">
         <v>26</v>
       </c>
-      <c r="B27" s="27" t="b">
+      <c r="B27" s="26" t="b">
         <v>0</v>
       </c>
-      <c r="C27" s="30" t="s">
+      <c r="C27" s="27" t="s">
         <v>253</v>
       </c>
-      <c r="D27" s="30" t="s">
+      <c r="D27" s="27" t="s">
         <v>254</v>
       </c>
-      <c r="E27" s="27">
+      <c r="E27" s="26">
         <v>1610407800</v>
       </c>
-      <c r="F27" s="27">
+      <c r="F27" s="26">
         <v>1610985599</v>
       </c>
-      <c r="G27" s="27" t="s">
+      <c r="G27" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="H27" s="27" t="s">
+      <c r="H27" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="I27" s="27">
+      <c r="I27" s="26">
         <v>26</v>
       </c>
-      <c r="K27" s="27">
+      <c r="K27" s="26">
         <v>26</v>
       </c>
-      <c r="L27" s="27">
+      <c r="L27" s="26">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="27">
+    <row r="28" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="26">
         <v>27</v>
       </c>
-      <c r="B28" s="27" t="b">
+      <c r="B28" s="26" t="b">
         <v>0</v>
       </c>
       <c r="C28" s="20" t="s">
         <v>256</v>
       </c>
-      <c r="D28" s="30" t="s">
+      <c r="D28" s="27" t="s">
         <v>257</v>
       </c>
-      <c r="E28" s="27">
+      <c r="E28" s="26">
         <v>1610409600</v>
       </c>
-      <c r="F28" s="27">
+      <c r="F28" s="26">
         <v>1611590399</v>
       </c>
-      <c r="G28" s="27" t="s">
+      <c r="G28" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="H28" s="27" t="s">
+      <c r="H28" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="I28" s="27">
+      <c r="I28" s="26">
         <v>27</v>
       </c>
-      <c r="K28" s="27">
+      <c r="K28" s="26">
         <v>27</v>
       </c>
-      <c r="L28" s="27">
+      <c r="L28" s="26">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="27">
+    <row r="29" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="26">
         <v>28</v>
       </c>
-      <c r="B29" s="27" t="b">
+      <c r="B29" s="26" t="b">
         <v>0</v>
       </c>
       <c r="C29" s="20" t="s">
         <v>259</v>
       </c>
-      <c r="D29" s="30" t="s">
+      <c r="D29" s="27" t="s">
         <v>258</v>
       </c>
-      <c r="E29" s="27">
+      <c r="E29" s="26">
         <v>1611590400</v>
       </c>
-      <c r="F29" s="27">
+      <c r="F29" s="26">
         <v>1612195199</v>
       </c>
-      <c r="G29" s="27" t="s">
+      <c r="G29" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="H29" s="27" t="s">
+      <c r="H29" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="I29" s="27">
+      <c r="I29" s="26">
         <v>28</v>
       </c>
-      <c r="K29" s="27">
+      <c r="K29" s="26">
         <v>28</v>
       </c>
-      <c r="L29" s="27">
+      <c r="L29" s="26">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="27">
+    <row r="30" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="26">
         <v>29</v>
       </c>
-      <c r="B30" s="27" t="b">
+      <c r="B30" s="26" t="b">
         <v>1</v>
       </c>
       <c r="C30" s="20" t="s">
         <v>263</v>
       </c>
-      <c r="D30" s="30" t="s">
+      <c r="D30" s="27" t="s">
         <v>260</v>
       </c>
-      <c r="E30" s="27">
+      <c r="E30" s="26">
         <v>1612224000</v>
       </c>
-      <c r="F30" s="27">
+      <c r="F30" s="26">
         <v>1612799999</v>
       </c>
-      <c r="G30" s="27" t="s">
+      <c r="G30" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="H30" s="27" t="s">
+      <c r="H30" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="I30" s="27">
+      <c r="I30" s="26">
         <v>29</v>
       </c>
-      <c r="K30" s="27">
+      <c r="K30" s="26">
         <v>29</v>
       </c>
-      <c r="L30" s="27">
+      <c r="L30" s="26">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:12" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="28">
+    <row r="31" spans="1:12" s="26" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="26">
         <v>30</v>
       </c>
-      <c r="B31" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="C31" s="33" t="s">
+      <c r="B31" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="C31" s="20" t="s">
         <v>262</v>
       </c>
-      <c r="D31" s="29" t="s">
+      <c r="D31" s="27" t="s">
         <v>261</v>
       </c>
-      <c r="E31" s="28">
+      <c r="E31" s="26">
         <v>1612828800</v>
       </c>
-      <c r="F31" s="28">
+      <c r="F31" s="26">
         <v>1613404799</v>
       </c>
-      <c r="G31" s="28" t="s">
+      <c r="G31" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="H31" s="28" t="s">
+      <c r="H31" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="I31" s="28">
+      <c r="I31" s="26">
         <v>30</v>
       </c>
-      <c r="K31" s="28">
+      <c r="K31" s="26">
         <v>30</v>
       </c>
-      <c r="L31" s="28">
+      <c r="L31" s="26">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="28">
+    <row r="32" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="26">
         <v>31</v>
       </c>
-      <c r="B32" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="C32" s="29" t="s">
+      <c r="B32" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="C32" s="27" t="s">
         <v>275</v>
       </c>
-      <c r="D32" s="28" t="s">
+      <c r="D32" s="26" t="s">
         <v>264</v>
       </c>
-      <c r="E32" s="28">
+      <c r="E32" s="26">
         <v>1612828800</v>
       </c>
-      <c r="F32" s="28">
+      <c r="F32" s="26">
         <v>1613404799</v>
       </c>
-      <c r="G32" s="29" t="s">
+      <c r="G32" s="27" t="s">
         <v>288</v>
       </c>
-      <c r="H32" s="28" t="s">
+      <c r="H32" s="26" t="s">
         <v>287</v>
       </c>
-      <c r="I32" s="28">
+      <c r="I32" s="26">
         <v>31</v>
       </c>
-      <c r="K32" s="28">
+      <c r="K32" s="26">
         <v>31</v>
       </c>
-      <c r="L32" s="28">
+      <c r="L32" s="26">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:12" s="42" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="42">
+    <row r="33" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="26">
         <v>32</v>
       </c>
-      <c r="B33" s="42" t="b">
-        <v>1</v>
-      </c>
-      <c r="C33" s="24" t="s">
+      <c r="B33" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="C33" s="20" t="s">
         <v>276</v>
       </c>
-      <c r="D33" s="43" t="s">
+      <c r="D33" s="27" t="s">
         <v>277</v>
       </c>
-      <c r="E33" s="42">
+      <c r="E33" s="26">
         <v>1613433600</v>
       </c>
-      <c r="F33" s="42">
+      <c r="F33" s="26">
         <v>1614009599</v>
       </c>
-      <c r="G33" s="42" t="s">
+      <c r="G33" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="H33" s="42" t="s">
+      <c r="H33" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="I33" s="42">
+      <c r="I33" s="26">
         <v>32</v>
       </c>
-      <c r="K33" s="42">
+      <c r="K33" s="26">
         <v>32</v>
       </c>
-      <c r="L33" s="42">
+      <c r="L33" s="26">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:12" s="44" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="44">
+    <row r="34" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="26">
         <v>33</v>
       </c>
-      <c r="B34" s="44" t="b">
-        <v>1</v>
-      </c>
-      <c r="C34" s="35" t="s">
+      <c r="B34" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="C34" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="D34" s="45" t="s">
+      <c r="D34" s="27" t="s">
         <v>280</v>
       </c>
-      <c r="E34" s="44">
+      <c r="E34" s="26">
         <v>1614038400</v>
       </c>
-      <c r="F34" s="44">
+      <c r="F34" s="26">
         <v>1614614399</v>
       </c>
-      <c r="G34" s="44" t="s">
+      <c r="G34" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="H34" s="44" t="s">
+      <c r="H34" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="I34" s="44">
+      <c r="I34" s="26">
         <v>33</v>
       </c>
-      <c r="K34" s="44">
+      <c r="K34" s="26">
         <v>33</v>
       </c>
-      <c r="L34" s="44">
+      <c r="L34" s="26">
         <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="33">
+        <v>34</v>
+      </c>
+      <c r="B35" s="33" t="b">
+        <v>1</v>
+      </c>
+      <c r="C35" s="34" t="s">
+        <v>289</v>
+      </c>
+      <c r="D35" s="35" t="s">
+        <v>290</v>
+      </c>
+      <c r="E35" s="33">
+        <v>1614643200</v>
+      </c>
+      <c r="F35" s="33">
+        <v>1615219199</v>
+      </c>
+      <c r="G35" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="I35" s="33">
+        <v>34</v>
+      </c>
+      <c r="K35" s="33">
+        <v>34</v>
+      </c>
+      <c r="L35" s="33">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -3103,11 +3115,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H68"/>
+  <dimension ref="A1:H70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D68" sqref="D68"/>
+      <selection pane="bottomLeft" activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3656,7 +3668,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -3669,10 +3681,10 @@
       <c r="D41" s="5">
         <v>22</v>
       </c>
-      <c r="E41" s="38"/>
-      <c r="F41" s="38"/>
-    </row>
-    <row r="42" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+    </row>
+    <row r="42" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -3685,8 +3697,8 @@
       <c r="D42" s="5">
         <v>22</v>
       </c>
-      <c r="E42" s="38"/>
-      <c r="F42" s="38"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
@@ -3772,7 +3784,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -3786,7 +3798,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -3800,7 +3812,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -3814,7 +3826,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -3828,7 +3840,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -3842,7 +3854,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -3856,7 +3868,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -3870,7 +3882,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -3884,7 +3896,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -3898,7 +3910,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -3912,144 +3924,192 @@
         <v>30</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="2">
+    <row r="59" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="5">
         <v>58</v>
       </c>
-      <c r="B59" s="31">
+      <c r="B59" s="5">
         <v>30</v>
       </c>
-      <c r="C59" s="33" t="s">
+      <c r="C59" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="D59" s="31">
+      <c r="D59" s="5">
         <v>31</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="2">
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+    </row>
+    <row r="60" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="5">
         <v>59</v>
       </c>
-      <c r="B60" s="31">
+      <c r="B60" s="5">
         <v>30</v>
       </c>
-      <c r="C60" s="31" t="s">
+      <c r="C60" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="D60" s="31">
+      <c r="D60" s="5">
         <v>31</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="2">
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+    </row>
+    <row r="61" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="5">
         <v>60</v>
       </c>
-      <c r="B61" s="31">
+      <c r="B61" s="5">
         <v>31</v>
       </c>
-      <c r="C61" s="33" t="s">
+      <c r="C61" s="20" t="s">
         <v>265</v>
       </c>
-      <c r="D61" s="31">
+      <c r="D61" s="5">
         <v>32</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="2">
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+    </row>
+    <row r="62" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="5">
         <v>61</v>
       </c>
-      <c r="B62" s="31">
+      <c r="B62" s="5">
         <v>31</v>
       </c>
-      <c r="C62" s="31" t="s">
+      <c r="C62" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="D62" s="31">
+      <c r="D62" s="5">
         <v>33</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="2">
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+    </row>
+    <row r="63" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="5">
         <v>62</v>
       </c>
-      <c r="B63" s="31">
+      <c r="B63" s="5">
         <v>31</v>
       </c>
-      <c r="C63" s="31" t="s">
+      <c r="C63" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D63" s="31">
+      <c r="D63" s="5">
         <v>34</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="2">
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+    </row>
+    <row r="64" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="5">
         <v>63</v>
       </c>
-      <c r="B64" s="31">
+      <c r="B64" s="5">
         <v>31</v>
       </c>
-      <c r="C64" s="33" t="s">
+      <c r="C64" s="20" t="s">
         <v>267</v>
       </c>
-      <c r="D64" s="31">
+      <c r="D64" s="5">
         <v>35</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="2">
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+    </row>
+    <row r="65" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="5">
         <v>64</v>
       </c>
-      <c r="B65" s="23">
+      <c r="B65" s="5">
         <v>32</v>
       </c>
-      <c r="C65" s="24" t="s">
+      <c r="C65" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="D65" s="23">
+      <c r="D65" s="5">
         <v>36</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="2">
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+    </row>
+    <row r="66" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="5">
         <v>65</v>
       </c>
-      <c r="B66" s="23">
+      <c r="B66" s="5">
         <v>32</v>
       </c>
-      <c r="C66" s="23" t="s">
+      <c r="C66" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="D66" s="23">
+      <c r="D66" s="5">
         <v>36</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="2">
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+    </row>
+    <row r="67" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="5">
         <v>66</v>
       </c>
-      <c r="B67" s="34">
+      <c r="B67" s="5">
         <v>33</v>
       </c>
-      <c r="C67" s="35" t="s">
+      <c r="C67" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="D67" s="34">
+      <c r="D67" s="5">
         <v>37</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="2">
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+    </row>
+    <row r="68" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="5">
         <v>67</v>
       </c>
-      <c r="B68" s="34">
+      <c r="B68" s="5">
         <v>33</v>
       </c>
-      <c r="C68" s="34" t="s">
+      <c r="C68" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="D68" s="34">
+      <c r="D68" s="5">
         <v>37</v>
+      </c>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" s="2">
+        <v>68</v>
+      </c>
+      <c r="B69" s="36">
+        <v>34</v>
+      </c>
+      <c r="C69" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="D69" s="36">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" s="2">
+        <v>69</v>
+      </c>
+      <c r="B70" s="36">
+        <v>34</v>
+      </c>
+      <c r="C70" s="36" t="s">
+        <v>242</v>
+      </c>
+      <c r="D70" s="36">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -4064,7 +4124,7 @@
   <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4501,7 +4561,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -4545,7 +4605,7 @@
       <c r="C28" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="D28" s="30" t="s">
+      <c r="D28" s="27" t="s">
         <v>249</v>
       </c>
       <c r="E28" s="5">
@@ -4579,7 +4639,7 @@
       <c r="C30" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="D30" s="30" t="s">
+      <c r="D30" s="27" t="s">
         <v>248</v>
       </c>
       <c r="E30" s="5">
@@ -4613,7 +4673,7 @@
       <c r="C32" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="D32" s="30" t="s">
+      <c r="D32" s="27" t="s">
         <v>247</v>
       </c>
       <c r="E32" s="5">
@@ -4647,7 +4707,7 @@
       <c r="C34" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="D34" s="30" t="s">
+      <c r="D34" s="27" t="s">
         <v>252</v>
       </c>
       <c r="E34" s="5">
@@ -4790,250 +4850,277 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="2">
+    <row r="43" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="5">
         <v>42</v>
       </c>
-      <c r="B43" s="31">
+      <c r="B43" s="5">
         <v>31</v>
       </c>
-      <c r="C43" s="31" t="s">
+      <c r="C43" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="D43" s="31">
+      <c r="D43" s="5">
         <v>9</v>
       </c>
-      <c r="E43" s="31">
+      <c r="E43" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="2">
+    <row r="44" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="5">
         <v>43</v>
       </c>
-      <c r="B44" s="31">
+      <c r="B44" s="5">
         <v>31</v>
       </c>
-      <c r="C44" s="31" t="s">
+      <c r="C44" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="D44" s="33" t="s">
+      <c r="D44" s="20" t="s">
         <v>255</v>
       </c>
-      <c r="E44" s="31">
+      <c r="E44" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="2">
+    <row r="45" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="5">
         <v>44</v>
       </c>
-      <c r="B45" s="31">
+      <c r="B45" s="5">
         <v>32</v>
       </c>
-      <c r="C45" s="33" t="s">
+      <c r="C45" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="D45" s="31">
+      <c r="D45" s="5">
         <v>240000</v>
       </c>
-      <c r="E45" s="31">
+      <c r="E45" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="2">
+    <row r="46" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="5">
         <v>45</v>
       </c>
-      <c r="B46" s="31">
+      <c r="B46" s="5">
         <v>32</v>
       </c>
-      <c r="C46" s="31" t="s">
+      <c r="C46" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D46" s="31">
+      <c r="D46" s="5">
         <v>500</v>
       </c>
-      <c r="E46" s="31">
+      <c r="E46" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="2">
+    <row r="47" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="5">
         <v>46</v>
       </c>
-      <c r="B47" s="31">
+      <c r="B47" s="5">
         <v>33</v>
       </c>
-      <c r="C47" s="31" t="s">
+      <c r="C47" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D47" s="31">
+      <c r="D47" s="5">
         <v>240000</v>
       </c>
-      <c r="E47" s="31">
+      <c r="E47" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="2">
+    <row r="48" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="5">
         <v>47</v>
       </c>
-      <c r="B48" s="31">
+      <c r="B48" s="5">
         <v>33</v>
       </c>
-      <c r="C48" s="31" t="s">
+      <c r="C48" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D48" s="31">
+      <c r="D48" s="5">
         <v>500</v>
       </c>
-      <c r="E48" s="31">
+      <c r="E48" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="2">
+    <row r="49" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="5">
         <v>48</v>
       </c>
-      <c r="B49" s="31">
+      <c r="B49" s="5">
         <v>34</v>
       </c>
-      <c r="C49" s="31" t="s">
+      <c r="C49" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D49" s="31">
+      <c r="D49" s="5">
         <v>240000</v>
       </c>
-      <c r="E49" s="31">
+      <c r="E49" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="2">
+    <row r="50" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="5">
         <v>49</v>
       </c>
-      <c r="B50" s="31">
+      <c r="B50" s="5">
         <v>34</v>
       </c>
-      <c r="C50" s="31" t="s">
+      <c r="C50" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D50" s="31">
+      <c r="D50" s="5">
         <v>500</v>
       </c>
-      <c r="E50" s="31">
+      <c r="E50" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="2">
+    <row r="51" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="5">
         <v>50</v>
       </c>
-      <c r="B51" s="31">
+      <c r="B51" s="5">
         <v>35</v>
       </c>
-      <c r="C51" s="31" t="s">
+      <c r="C51" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D51" s="31">
+      <c r="D51" s="5">
         <v>240000</v>
       </c>
-      <c r="E51" s="31">
+      <c r="E51" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="2">
+    <row r="52" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="5">
         <v>51</v>
       </c>
-      <c r="B52" s="31">
+      <c r="B52" s="5">
         <v>35</v>
       </c>
-      <c r="C52" s="31" t="s">
+      <c r="C52" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D52" s="31">
+      <c r="D52" s="5">
         <v>500</v>
       </c>
-      <c r="E52" s="31">
+      <c r="E52" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="2">
+    <row r="53" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="5">
         <v>52</v>
       </c>
-      <c r="B53" s="23">
+      <c r="B53" s="5">
         <v>36</v>
       </c>
-      <c r="C53" s="23" t="s">
+      <c r="C53" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="D53" s="23">
+      <c r="D53" s="5">
         <v>9</v>
       </c>
-      <c r="E53" s="23">
+      <c r="E53" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="2">
+    <row r="54" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="5">
         <v>53</v>
       </c>
-      <c r="B54" s="23">
+      <c r="B54" s="5">
         <v>36</v>
       </c>
-      <c r="C54" s="23" t="s">
+      <c r="C54" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="D54" s="24" t="s">
+      <c r="D54" s="20" t="s">
         <v>278</v>
       </c>
-      <c r="E54" s="23">
+      <c r="E54" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="2">
+    <row r="55" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="5">
         <v>54</v>
       </c>
-      <c r="B55" s="34">
+      <c r="B55" s="5">
         <v>37</v>
       </c>
-      <c r="C55" s="34" t="s">
+      <c r="C55" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="D55" s="34">
+      <c r="D55" s="5">
         <v>9</v>
       </c>
-      <c r="E55" s="34">
+      <c r="E55" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="2">
+    <row r="56" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="5">
         <v>55</v>
       </c>
-      <c r="B56" s="34">
+      <c r="B56" s="5">
         <v>37</v>
       </c>
-      <c r="C56" s="34" t="s">
+      <c r="C56" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="D56" s="35" t="s">
+      <c r="D56" s="20" t="s">
         <v>281</v>
       </c>
-      <c r="E56" s="34">
+      <c r="E56" s="5">
         <v>2</v>
       </c>
     </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="5">
+        <v>56</v>
+      </c>
+      <c r="B57" s="36">
+        <v>38</v>
+      </c>
+      <c r="C57" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="D57" s="36">
+        <v>9</v>
+      </c>
+      <c r="E57" s="36">
+        <v>2</v>
+      </c>
+    </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="5"/>
-      <c r="B58" s="5"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="20"/>
-      <c r="E58" s="5"/>
+      <c r="A58" s="5">
+        <v>57</v>
+      </c>
+      <c r="B58" s="36">
+        <v>38</v>
+      </c>
+      <c r="C58" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="D58" s="34" t="s">
+        <v>281</v>
+      </c>
+      <c r="E58" s="36">
+        <v>2</v>
+      </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="5"/>
@@ -5156,11 +5243,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5496,26 +5583,26 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="23">
+    <row r="15" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="23">
-        <v>1</v>
-      </c>
-      <c r="C15" s="23">
+      <c r="B15" s="5">
+        <v>1</v>
+      </c>
+      <c r="C15" s="5">
         <v>20</v>
       </c>
-      <c r="D15" s="23">
+      <c r="D15" s="5">
         <v>100</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="5">
         <v>20</v>
       </c>
-      <c r="F15" s="23">
+      <c r="F15" s="5">
         <v>180</v>
       </c>
-      <c r="G15" s="23">
+      <c r="G15" s="5">
         <v>10</v>
       </c>
     </row>
@@ -5634,26 +5721,26 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="38">
+    <row r="21" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="28">
         <v>20</v>
       </c>
-      <c r="B21" s="38">
-        <v>1</v>
-      </c>
-      <c r="C21" s="38">
+      <c r="B21" s="28">
+        <v>1</v>
+      </c>
+      <c r="C21" s="28">
         <v>20</v>
       </c>
-      <c r="D21" s="38">
+      <c r="D21" s="28">
         <v>100</v>
       </c>
-      <c r="E21" s="38">
+      <c r="E21" s="28">
         <v>20</v>
       </c>
-      <c r="F21" s="38">
+      <c r="F21" s="28">
         <v>180</v>
       </c>
-      <c r="G21" s="38">
+      <c r="G21" s="28">
         <v>10</v>
       </c>
     </row>
@@ -5865,95 +5952,118 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="31">
+    <row r="31" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="5">
         <v>30</v>
       </c>
-      <c r="B31" s="31">
-        <v>1</v>
-      </c>
-      <c r="C31" s="31">
+      <c r="B31" s="5">
+        <v>1</v>
+      </c>
+      <c r="C31" s="5">
         <v>20</v>
       </c>
-      <c r="D31" s="31">
+      <c r="D31" s="5">
         <v>100</v>
       </c>
-      <c r="E31" s="31">
+      <c r="E31" s="5">
         <v>20</v>
       </c>
-      <c r="F31" s="31">
+      <c r="F31" s="5">
         <v>180</v>
       </c>
-      <c r="G31" s="31">
+      <c r="G31" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="31">
+    <row r="32" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="5">
         <v>31</v>
       </c>
-      <c r="B32" s="31">
-        <v>1</v>
-      </c>
-      <c r="C32" s="31">
+      <c r="B32" s="5">
+        <v>1</v>
+      </c>
+      <c r="C32" s="5">
         <v>20</v>
       </c>
-      <c r="D32" s="31">
+      <c r="D32" s="5">
         <v>100</v>
       </c>
-      <c r="E32" s="31">
+      <c r="E32" s="5">
         <v>20</v>
       </c>
-      <c r="F32" s="31">
+      <c r="F32" s="5">
         <v>180</v>
       </c>
-      <c r="G32" s="31">
+      <c r="G32" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="23">
+    <row r="33" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="5">
         <v>32</v>
       </c>
-      <c r="B33" s="23">
-        <v>1</v>
-      </c>
-      <c r="C33" s="23">
+      <c r="B33" s="5">
+        <v>1</v>
+      </c>
+      <c r="C33" s="5">
         <v>20</v>
       </c>
-      <c r="D33" s="23">
+      <c r="D33" s="5">
         <v>100</v>
       </c>
-      <c r="E33" s="23">
+      <c r="E33" s="5">
         <v>20</v>
       </c>
-      <c r="F33" s="23">
+      <c r="F33" s="5">
         <v>180</v>
       </c>
-      <c r="G33" s="23">
+      <c r="G33" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="34">
+    <row r="34" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="5">
         <v>33</v>
       </c>
-      <c r="B34" s="34">
-        <v>1</v>
-      </c>
-      <c r="C34" s="34">
+      <c r="B34" s="5">
+        <v>1</v>
+      </c>
+      <c r="C34" s="5">
         <v>20</v>
       </c>
-      <c r="D34" s="34">
+      <c r="D34" s="5">
         <v>100</v>
       </c>
-      <c r="E34" s="34">
+      <c r="E34" s="5">
         <v>20</v>
       </c>
-      <c r="F34" s="34">
+      <c r="F34" s="5">
         <v>180</v>
       </c>
-      <c r="G34" s="34">
+      <c r="G34" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="5">
+        <v>34</v>
+      </c>
+      <c r="B35" s="36">
+        <v>1</v>
+      </c>
+      <c r="C35" s="36">
+        <v>20</v>
+      </c>
+      <c r="D35" s="36">
+        <v>100</v>
+      </c>
+      <c r="E35" s="36">
+        <v>20</v>
+      </c>
+      <c r="F35" s="36">
+        <v>180</v>
+      </c>
+      <c r="G35" s="36">
         <v>10</v>
       </c>
     </row>
@@ -5965,11 +6075,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6371,59 +6481,73 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="31">
+      <c r="A29" s="5">
         <v>28</v>
       </c>
-      <c r="B29" s="31">
+      <c r="B29" s="5">
         <v>32</v>
       </c>
-      <c r="C29" s="31">
-        <v>1</v>
-      </c>
-      <c r="D29" s="31">
+      <c r="C29" s="5">
+        <v>1</v>
+      </c>
+      <c r="D29" s="5">
         <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="31">
+      <c r="A30" s="5">
         <v>29</v>
       </c>
-      <c r="B30" s="31">
+      <c r="B30" s="5">
         <v>33</v>
       </c>
-      <c r="C30" s="31">
-        <v>1</v>
-      </c>
-      <c r="D30" s="31">
+      <c r="C30" s="5">
+        <v>1</v>
+      </c>
+      <c r="D30" s="5">
         <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="23">
+      <c r="A31" s="5">
         <v>30</v>
       </c>
-      <c r="B31" s="23">
+      <c r="B31" s="5">
         <v>34</v>
       </c>
-      <c r="C31" s="23">
-        <v>1</v>
-      </c>
-      <c r="D31" s="23">
+      <c r="C31" s="5">
+        <v>1</v>
+      </c>
+      <c r="D31" s="5">
         <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="34">
+      <c r="A32" s="5">
         <v>31</v>
       </c>
-      <c r="B32" s="34">
+      <c r="B32" s="5">
         <v>35</v>
       </c>
-      <c r="C32" s="34">
-        <v>1</v>
-      </c>
-      <c r="D32" s="34">
+      <c r="C32" s="5">
+        <v>1</v>
+      </c>
+      <c r="D32" s="5">
         <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="36">
+        <v>32</v>
+      </c>
+      <c r="B33" s="36">
+        <v>36</v>
+      </c>
+      <c r="C33" s="36">
+        <v>1</v>
+      </c>
+      <c r="D33" s="36">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -6435,11 +6559,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
+      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6725,7 +6849,7 @@
       <c r="B23" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C23" s="27">
+      <c r="C23" s="26">
         <v>1607961599</v>
       </c>
     </row>
@@ -6747,7 +6871,7 @@
       <c r="B25" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C25" s="27">
+      <c r="C25" s="26">
         <v>1608566399</v>
       </c>
     </row>
@@ -6758,7 +6882,7 @@
       <c r="B26" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C26" s="41">
+      <c r="C26" s="31">
         <v>1609171199</v>
       </c>
     </row>
@@ -6769,7 +6893,7 @@
       <c r="B27" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C27" s="41">
+      <c r="C27" s="31">
         <v>1609775999</v>
       </c>
     </row>
@@ -6780,7 +6904,7 @@
       <c r="B28" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C28" s="41">
+      <c r="C28" s="31">
         <v>1610380799</v>
       </c>
     </row>
@@ -6802,7 +6926,7 @@
       <c r="B30" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C30" s="27">
+      <c r="C30" s="26">
         <v>1611590399</v>
       </c>
     </row>
@@ -6813,7 +6937,7 @@
       <c r="B31" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C31" s="27">
+      <c r="C31" s="26">
         <v>1612195199</v>
       </c>
     </row>
@@ -6824,52 +6948,63 @@
       <c r="B32" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C32" s="27">
+      <c r="C32" s="26">
         <v>1612799999</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="31">
+      <c r="A33" s="5">
         <v>32</v>
       </c>
-      <c r="B33" s="31" t="s">
+      <c r="B33" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C33" s="28">
+      <c r="C33" s="26">
         <v>1612828800</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="31">
+      <c r="A34" s="5">
         <v>33</v>
       </c>
-      <c r="B34" s="31" t="s">
+      <c r="B34" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C34" s="31">
+      <c r="C34" s="5">
         <v>1613404799</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="23">
+      <c r="A35" s="5">
         <v>34</v>
       </c>
-      <c r="B35" s="23" t="s">
+      <c r="B35" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C35" s="42">
+      <c r="C35" s="26">
         <v>1614009599</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="34">
+      <c r="A36" s="5">
         <v>35</v>
       </c>
-      <c r="B36" s="34" t="s">
+      <c r="B36" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C36" s="44">
+      <c r="C36" s="26">
         <v>1614614399</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="5">
+        <v>36</v>
+      </c>
+      <c r="B37" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="C37" s="33">
+        <v>1615219199</v>
       </c>
     </row>
   </sheetData>
@@ -6880,11 +7015,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I213"/>
+  <dimension ref="A1:I220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G125" sqref="G125"/>
+      <pane ySplit="1" topLeftCell="A194" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G207" sqref="G207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9692,114 +9827,114 @@
       <c r="I124" s="5"/>
     </row>
     <row r="125" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="23">
+      <c r="A125" s="5">
         <v>124</v>
       </c>
-      <c r="B125" s="23">
+      <c r="B125" s="5">
         <v>19</v>
       </c>
-      <c r="C125" s="23">
-        <v>1</v>
-      </c>
-      <c r="D125" s="23">
-        <v>1</v>
-      </c>
-      <c r="E125" s="23"/>
-      <c r="F125" s="23"/>
-      <c r="G125" s="23">
+      <c r="C125" s="5">
+        <v>1</v>
+      </c>
+      <c r="D125" s="5">
+        <v>1</v>
+      </c>
+      <c r="E125" s="5"/>
+      <c r="F125" s="5"/>
+      <c r="G125" s="5">
         <v>109</v>
       </c>
-      <c r="H125" s="24" t="s">
+      <c r="H125" s="20" t="s">
         <v>219</v>
       </c>
       <c r="I125" s="5"/>
     </row>
     <row r="126" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="23">
+      <c r="A126" s="5">
         <v>125</v>
       </c>
-      <c r="B126" s="23">
+      <c r="B126" s="5">
         <v>19</v>
       </c>
-      <c r="C126" s="23">
+      <c r="C126" s="5">
         <v>2</v>
       </c>
-      <c r="D126" s="23">
+      <c r="D126" s="5">
         <v>2</v>
       </c>
-      <c r="E126" s="23"/>
-      <c r="F126" s="23"/>
-      <c r="G126" s="23">
+      <c r="E126" s="5"/>
+      <c r="F126" s="5"/>
+      <c r="G126" s="5">
         <v>110</v>
       </c>
-      <c r="H126" s="24" t="s">
+      <c r="H126" s="20" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="127" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="23">
+      <c r="A127" s="5">
         <v>126</v>
       </c>
-      <c r="B127" s="23">
+      <c r="B127" s="5">
         <v>19</v>
       </c>
-      <c r="C127" s="23">
+      <c r="C127" s="5">
         <v>3</v>
       </c>
-      <c r="D127" s="23">
+      <c r="D127" s="5">
         <v>3</v>
       </c>
-      <c r="E127" s="23"/>
-      <c r="F127" s="23"/>
-      <c r="G127" s="23">
+      <c r="E127" s="5"/>
+      <c r="F127" s="5"/>
+      <c r="G127" s="5">
         <v>111</v>
       </c>
-      <c r="H127" s="24" t="s">
+      <c r="H127" s="20" t="s">
         <v>136</v>
       </c>
       <c r="I127" s="5"/>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A128" s="23">
+      <c r="A128" s="5">
         <v>127</v>
       </c>
-      <c r="B128" s="23">
+      <c r="B128" s="5">
         <v>19</v>
       </c>
-      <c r="C128" s="23">
+      <c r="C128" s="5">
         <v>4</v>
       </c>
-      <c r="D128" s="23">
+      <c r="D128" s="5">
         <v>10</v>
       </c>
-      <c r="E128" s="23"/>
-      <c r="F128" s="23"/>
-      <c r="G128" s="23">
+      <c r="E128" s="5"/>
+      <c r="F128" s="5"/>
+      <c r="G128" s="5">
         <v>112</v>
       </c>
-      <c r="H128" s="24" t="s">
+      <c r="H128" s="20" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A129" s="23">
+      <c r="A129" s="5">
         <v>128</v>
       </c>
-      <c r="B129" s="23">
+      <c r="B129" s="5">
         <v>19</v>
       </c>
-      <c r="C129" s="23">
+      <c r="C129" s="5">
         <v>11</v>
       </c>
-      <c r="D129" s="23">
+      <c r="D129" s="5">
         <v>20</v>
       </c>
-      <c r="E129" s="23"/>
-      <c r="F129" s="23"/>
-      <c r="G129" s="23">
+      <c r="E129" s="5"/>
+      <c r="F129" s="5"/>
+      <c r="G129" s="5">
         <v>113</v>
       </c>
-      <c r="H129" s="24" t="s">
+      <c r="H129" s="20" t="s">
         <v>136</v>
       </c>
     </row>
@@ -10837,7 +10972,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177" s="5">
         <v>176</v>
       </c>
@@ -10859,7 +10994,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178" s="5">
         <v>177</v>
       </c>
@@ -10881,7 +11016,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179" s="5">
         <v>178</v>
       </c>
@@ -10903,7 +11038,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180" s="5">
         <v>179</v>
       </c>
@@ -10925,7 +11060,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A181" s="5">
         <v>180</v>
       </c>
@@ -10947,7 +11082,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A182" s="5">
         <v>181</v>
       </c>
@@ -10969,7 +11104,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183" s="5">
         <v>182</v>
       </c>
@@ -10991,7 +11126,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A184" s="5">
         <v>183</v>
       </c>
@@ -11013,7 +11148,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A185" s="5">
         <v>184</v>
       </c>
@@ -11035,619 +11170,801 @@
         <v>122</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A186" s="5">
         <v>185</v>
       </c>
-      <c r="B186" s="31">
+      <c r="B186" s="5">
         <v>28</v>
       </c>
-      <c r="C186" s="31">
-        <v>1</v>
-      </c>
-      <c r="D186" s="31">
-        <v>1</v>
-      </c>
-      <c r="E186" s="31"/>
-      <c r="F186" s="31"/>
-      <c r="G186" s="31">
+      <c r="C186" s="5">
+        <v>1</v>
+      </c>
+      <c r="D186" s="5">
+        <v>1</v>
+      </c>
+      <c r="E186" s="5"/>
+      <c r="F186" s="5"/>
+      <c r="G186" s="5">
         <v>170</v>
       </c>
-      <c r="H186" s="32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H186" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I186" s="5"/>
+    </row>
+    <row r="187" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A187" s="5">
         <v>186</v>
       </c>
-      <c r="B187" s="31">
+      <c r="B187" s="5">
         <v>28</v>
       </c>
-      <c r="C187" s="31">
+      <c r="C187" s="5">
         <v>2</v>
       </c>
-      <c r="D187" s="31">
+      <c r="D187" s="5">
         <v>2</v>
       </c>
-      <c r="E187" s="31"/>
-      <c r="F187" s="31"/>
-      <c r="G187" s="31">
+      <c r="E187" s="5"/>
+      <c r="F187" s="5"/>
+      <c r="G187" s="5">
         <v>171</v>
       </c>
-      <c r="H187" s="32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H187" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I187" s="5"/>
+    </row>
+    <row r="188" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A188" s="5">
         <v>187</v>
       </c>
-      <c r="B188" s="31">
+      <c r="B188" s="5">
         <v>28</v>
       </c>
-      <c r="C188" s="31">
+      <c r="C188" s="5">
         <v>3</v>
       </c>
-      <c r="D188" s="31">
+      <c r="D188" s="5">
         <v>3</v>
       </c>
-      <c r="E188" s="31"/>
-      <c r="F188" s="31"/>
-      <c r="G188" s="31">
+      <c r="E188" s="5"/>
+      <c r="F188" s="5"/>
+      <c r="G188" s="5">
         <v>172</v>
       </c>
-      <c r="H188" s="32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H188" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I188" s="5"/>
+    </row>
+    <row r="189" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A189" s="5">
         <v>188</v>
       </c>
-      <c r="B189" s="31">
+      <c r="B189" s="5">
         <v>28</v>
       </c>
-      <c r="C189" s="31">
+      <c r="C189" s="5">
         <v>4</v>
       </c>
-      <c r="D189" s="31">
+      <c r="D189" s="5">
         <v>6</v>
       </c>
-      <c r="E189" s="31"/>
-      <c r="F189" s="31"/>
-      <c r="G189" s="31">
+      <c r="E189" s="5"/>
+      <c r="F189" s="5"/>
+      <c r="G189" s="5">
         <v>173</v>
       </c>
-      <c r="H189" s="32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H189" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I189" s="5"/>
+    </row>
+    <row r="190" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A190" s="5">
         <v>189</v>
       </c>
-      <c r="B190" s="31">
+      <c r="B190" s="5">
         <v>28</v>
       </c>
-      <c r="C190" s="31">
+      <c r="C190" s="5">
         <v>7</v>
       </c>
-      <c r="D190" s="31">
+      <c r="D190" s="5">
         <v>10</v>
       </c>
-      <c r="E190" s="31"/>
-      <c r="F190" s="31"/>
-      <c r="G190" s="31">
+      <c r="E190" s="5"/>
+      <c r="F190" s="5"/>
+      <c r="G190" s="5">
         <v>174</v>
       </c>
-      <c r="H190" s="32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H190" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I190" s="5"/>
+    </row>
+    <row r="191" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A191" s="5">
         <v>190</v>
       </c>
-      <c r="B191" s="31">
+      <c r="B191" s="5">
         <v>28</v>
       </c>
-      <c r="C191" s="31">
+      <c r="C191" s="5">
         <v>11</v>
       </c>
-      <c r="D191" s="31">
+      <c r="D191" s="5">
         <v>15</v>
       </c>
-      <c r="E191" s="31"/>
-      <c r="F191" s="31"/>
-      <c r="G191" s="31">
+      <c r="E191" s="5"/>
+      <c r="F191" s="5"/>
+      <c r="G191" s="5">
         <v>175</v>
       </c>
-      <c r="H191" s="32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H191" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I191" s="5"/>
+    </row>
+    <row r="192" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A192" s="5">
         <v>191</v>
       </c>
-      <c r="B192" s="31">
+      <c r="B192" s="5">
         <v>28</v>
       </c>
-      <c r="C192" s="31">
+      <c r="C192" s="5">
         <v>16</v>
       </c>
-      <c r="D192" s="31">
+      <c r="D192" s="5">
         <v>20</v>
       </c>
-      <c r="E192" s="31"/>
-      <c r="F192" s="31"/>
-      <c r="G192" s="31">
+      <c r="E192" s="5"/>
+      <c r="F192" s="5"/>
+      <c r="G192" s="5">
         <v>176</v>
       </c>
-      <c r="H192" s="32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H192" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I192" s="5"/>
+    </row>
+    <row r="193" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A193" s="5">
         <v>192</v>
       </c>
-      <c r="B193" s="31">
+      <c r="B193" s="5">
         <v>29</v>
       </c>
-      <c r="C193" s="31">
-        <v>1</v>
-      </c>
-      <c r="D193" s="31">
-        <v>1</v>
-      </c>
-      <c r="E193" s="31"/>
-      <c r="F193" s="31"/>
-      <c r="G193" s="31">
+      <c r="C193" s="5">
+        <v>1</v>
+      </c>
+      <c r="D193" s="5">
+        <v>1</v>
+      </c>
+      <c r="E193" s="5"/>
+      <c r="F193" s="5"/>
+      <c r="G193" s="5">
         <v>177</v>
       </c>
-      <c r="H193" s="32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H193" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I193" s="5"/>
+    </row>
+    <row r="194" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A194" s="5">
         <v>193</v>
       </c>
-      <c r="B194" s="31">
+      <c r="B194" s="5">
         <v>29</v>
       </c>
-      <c r="C194" s="31">
+      <c r="C194" s="5">
         <v>2</v>
       </c>
-      <c r="D194" s="31">
+      <c r="D194" s="5">
         <v>2</v>
       </c>
-      <c r="E194" s="31"/>
-      <c r="F194" s="31"/>
-      <c r="G194" s="31">
+      <c r="E194" s="5"/>
+      <c r="F194" s="5"/>
+      <c r="G194" s="5">
         <v>178</v>
       </c>
-      <c r="H194" s="32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H194" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I194" s="5"/>
+    </row>
+    <row r="195" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A195" s="5">
         <v>194</v>
       </c>
-      <c r="B195" s="31">
+      <c r="B195" s="5">
         <v>29</v>
       </c>
-      <c r="C195" s="31">
+      <c r="C195" s="5">
         <v>3</v>
       </c>
-      <c r="D195" s="31">
+      <c r="D195" s="5">
         <v>3</v>
       </c>
-      <c r="E195" s="31"/>
-      <c r="F195" s="31"/>
-      <c r="G195" s="31">
+      <c r="E195" s="5"/>
+      <c r="F195" s="5"/>
+      <c r="G195" s="5">
         <v>179</v>
       </c>
-      <c r="H195" s="32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H195" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I195" s="5"/>
+    </row>
+    <row r="196" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A196" s="5">
         <v>195</v>
       </c>
-      <c r="B196" s="31">
+      <c r="B196" s="5">
         <v>29</v>
       </c>
-      <c r="C196" s="31">
+      <c r="C196" s="5">
         <v>4</v>
       </c>
-      <c r="D196" s="31">
+      <c r="D196" s="5">
         <v>6</v>
       </c>
-      <c r="E196" s="31"/>
-      <c r="F196" s="31"/>
-      <c r="G196" s="31">
+      <c r="E196" s="5"/>
+      <c r="F196" s="5"/>
+      <c r="G196" s="5">
         <v>180</v>
       </c>
-      <c r="H196" s="32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H196" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I196" s="5"/>
+    </row>
+    <row r="197" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A197" s="5">
         <v>196</v>
       </c>
-      <c r="B197" s="31">
+      <c r="B197" s="5">
         <v>29</v>
       </c>
-      <c r="C197" s="31">
+      <c r="C197" s="5">
         <v>7</v>
       </c>
-      <c r="D197" s="31">
+      <c r="D197" s="5">
         <v>10</v>
       </c>
-      <c r="E197" s="31"/>
-      <c r="F197" s="31"/>
-      <c r="G197" s="31">
+      <c r="E197" s="5"/>
+      <c r="F197" s="5"/>
+      <c r="G197" s="5">
         <v>181</v>
       </c>
-      <c r="H197" s="32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H197" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I197" s="5"/>
+    </row>
+    <row r="198" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A198" s="5">
         <v>197</v>
       </c>
-      <c r="B198" s="31">
+      <c r="B198" s="5">
         <v>29</v>
       </c>
-      <c r="C198" s="31">
+      <c r="C198" s="5">
         <v>11</v>
       </c>
-      <c r="D198" s="31">
+      <c r="D198" s="5">
         <v>15</v>
       </c>
-      <c r="E198" s="31"/>
-      <c r="F198" s="31"/>
-      <c r="G198" s="31">
+      <c r="E198" s="5"/>
+      <c r="F198" s="5"/>
+      <c r="G198" s="5">
         <v>182</v>
       </c>
-      <c r="H198" s="32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H198" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I198" s="5"/>
+    </row>
+    <row r="199" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A199" s="5">
         <v>198</v>
       </c>
-      <c r="B199" s="31">
+      <c r="B199" s="5">
         <v>29</v>
       </c>
-      <c r="C199" s="31">
+      <c r="C199" s="5">
         <v>16</v>
       </c>
-      <c r="D199" s="31">
+      <c r="D199" s="5">
         <v>20</v>
       </c>
-      <c r="E199" s="31"/>
-      <c r="F199" s="31"/>
-      <c r="G199" s="31">
+      <c r="E199" s="5"/>
+      <c r="F199" s="5"/>
+      <c r="G199" s="5">
         <v>183</v>
       </c>
-      <c r="H199" s="32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H199" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I199" s="5"/>
+    </row>
+    <row r="200" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A200" s="5">
         <v>199</v>
       </c>
-      <c r="B200" s="23">
+      <c r="B200" s="5">
         <v>30</v>
       </c>
-      <c r="C200" s="23">
-        <v>1</v>
-      </c>
-      <c r="D200" s="23">
-        <v>1</v>
-      </c>
-      <c r="E200" s="23"/>
-      <c r="F200" s="23"/>
-      <c r="G200" s="23">
+      <c r="C200" s="5">
+        <v>1</v>
+      </c>
+      <c r="D200" s="5">
+        <v>1</v>
+      </c>
+      <c r="E200" s="5"/>
+      <c r="F200" s="5"/>
+      <c r="G200" s="5">
         <v>184</v>
       </c>
-      <c r="H200" s="25" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H200" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I200" s="5"/>
+    </row>
+    <row r="201" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A201" s="5">
         <v>200</v>
       </c>
-      <c r="B201" s="23">
+      <c r="B201" s="5">
         <v>30</v>
       </c>
-      <c r="C201" s="23">
+      <c r="C201" s="5">
         <v>2</v>
       </c>
-      <c r="D201" s="23">
+      <c r="D201" s="5">
         <v>2</v>
       </c>
-      <c r="E201" s="23"/>
-      <c r="F201" s="23"/>
-      <c r="G201" s="23">
+      <c r="E201" s="5"/>
+      <c r="F201" s="5"/>
+      <c r="G201" s="5">
         <v>185</v>
       </c>
-      <c r="H201" s="25" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H201" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I201" s="5"/>
+    </row>
+    <row r="202" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A202" s="5">
         <v>201</v>
       </c>
-      <c r="B202" s="23">
+      <c r="B202" s="5">
         <v>30</v>
       </c>
-      <c r="C202" s="23">
+      <c r="C202" s="5">
         <v>3</v>
       </c>
-      <c r="D202" s="23">
+      <c r="D202" s="5">
         <v>3</v>
       </c>
-      <c r="E202" s="23"/>
-      <c r="F202" s="23"/>
-      <c r="G202" s="23">
+      <c r="E202" s="5"/>
+      <c r="F202" s="5"/>
+      <c r="G202" s="5">
         <v>186</v>
       </c>
-      <c r="H202" s="25" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H202" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I202" s="5"/>
+    </row>
+    <row r="203" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A203" s="5">
         <v>202</v>
       </c>
-      <c r="B203" s="23">
+      <c r="B203" s="5">
         <v>30</v>
       </c>
-      <c r="C203" s="23">
+      <c r="C203" s="5">
         <v>4</v>
       </c>
-      <c r="D203" s="23">
+      <c r="D203" s="5">
         <v>6</v>
       </c>
-      <c r="E203" s="23"/>
-      <c r="F203" s="23"/>
-      <c r="G203" s="23">
+      <c r="E203" s="5"/>
+      <c r="F203" s="5"/>
+      <c r="G203" s="5">
         <v>187</v>
       </c>
-      <c r="H203" s="25" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H203" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I203" s="5"/>
+    </row>
+    <row r="204" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A204" s="5">
         <v>203</v>
       </c>
-      <c r="B204" s="23">
+      <c r="B204" s="5">
         <v>30</v>
       </c>
-      <c r="C204" s="23">
+      <c r="C204" s="5">
         <v>7</v>
       </c>
-      <c r="D204" s="23">
+      <c r="D204" s="5">
         <v>10</v>
       </c>
-      <c r="E204" s="23"/>
-      <c r="F204" s="23"/>
-      <c r="G204" s="23">
+      <c r="E204" s="5"/>
+      <c r="F204" s="5"/>
+      <c r="G204" s="5">
         <v>188</v>
       </c>
-      <c r="H204" s="25" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H204" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I204" s="5"/>
+    </row>
+    <row r="205" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A205" s="5">
         <v>204</v>
       </c>
-      <c r="B205" s="23">
+      <c r="B205" s="5">
         <v>30</v>
       </c>
-      <c r="C205" s="23">
+      <c r="C205" s="5">
         <v>11</v>
       </c>
-      <c r="D205" s="23">
+      <c r="D205" s="5">
         <v>15</v>
       </c>
-      <c r="E205" s="23"/>
-      <c r="F205" s="23"/>
-      <c r="G205" s="23">
+      <c r="E205" s="5"/>
+      <c r="F205" s="5"/>
+      <c r="G205" s="5">
         <v>189</v>
       </c>
-      <c r="H205" s="25" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H205" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I205" s="5"/>
+    </row>
+    <row r="206" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A206" s="5">
         <v>205</v>
       </c>
-      <c r="B206" s="23">
+      <c r="B206" s="5">
         <v>30</v>
       </c>
-      <c r="C206" s="23">
+      <c r="C206" s="5">
         <v>16</v>
       </c>
-      <c r="D206" s="23">
+      <c r="D206" s="5">
         <v>20</v>
       </c>
-      <c r="E206" s="23"/>
-      <c r="F206" s="23"/>
-      <c r="G206" s="23">
+      <c r="E206" s="5"/>
+      <c r="F206" s="5"/>
+      <c r="G206" s="5">
         <v>190</v>
       </c>
-      <c r="H206" s="25" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H206" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I206" s="5"/>
+    </row>
+    <row r="207" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A207" s="5">
         <v>206</v>
       </c>
-      <c r="B207" s="34">
+      <c r="B207" s="5">
         <v>31</v>
       </c>
-      <c r="C207" s="34">
-        <v>1</v>
-      </c>
-      <c r="D207" s="34">
-        <v>1</v>
-      </c>
-      <c r="E207" s="34"/>
-      <c r="F207" s="34"/>
-      <c r="G207" s="34">
+      <c r="C207" s="5">
+        <v>1</v>
+      </c>
+      <c r="D207" s="5">
+        <v>1</v>
+      </c>
+      <c r="E207" s="5"/>
+      <c r="F207" s="5"/>
+      <c r="G207" s="5">
         <v>191</v>
       </c>
-      <c r="H207" s="36" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H207" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I207" s="5"/>
+    </row>
+    <row r="208" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A208" s="5">
         <v>207</v>
       </c>
-      <c r="B208" s="34">
+      <c r="B208" s="5">
         <v>31</v>
       </c>
-      <c r="C208" s="34">
+      <c r="C208" s="5">
         <v>2</v>
       </c>
-      <c r="D208" s="34">
+      <c r="D208" s="5">
         <v>2</v>
       </c>
-      <c r="E208" s="34"/>
-      <c r="F208" s="34"/>
-      <c r="G208" s="34">
+      <c r="E208" s="5"/>
+      <c r="F208" s="5"/>
+      <c r="G208" s="5">
         <v>192</v>
       </c>
-      <c r="H208" s="36" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H208" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I208" s="5"/>
+    </row>
+    <row r="209" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A209" s="5">
         <v>208</v>
       </c>
-      <c r="B209" s="34">
+      <c r="B209" s="5">
         <v>31</v>
       </c>
-      <c r="C209" s="34">
+      <c r="C209" s="5">
         <v>3</v>
       </c>
-      <c r="D209" s="34">
+      <c r="D209" s="5">
         <v>3</v>
       </c>
-      <c r="E209" s="34"/>
-      <c r="F209" s="34"/>
-      <c r="G209" s="34">
+      <c r="E209" s="5"/>
+      <c r="F209" s="5"/>
+      <c r="G209" s="5">
         <v>193</v>
       </c>
-      <c r="H209" s="36" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H209" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I209" s="5"/>
+    </row>
+    <row r="210" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A210" s="5">
         <v>209</v>
       </c>
-      <c r="B210" s="34">
+      <c r="B210" s="5">
         <v>31</v>
       </c>
-      <c r="C210" s="34">
+      <c r="C210" s="5">
         <v>4</v>
       </c>
-      <c r="D210" s="34">
+      <c r="D210" s="5">
         <v>6</v>
       </c>
-      <c r="E210" s="34"/>
-      <c r="F210" s="34"/>
-      <c r="G210" s="34">
+      <c r="E210" s="5"/>
+      <c r="F210" s="5"/>
+      <c r="G210" s="5">
         <v>194</v>
       </c>
-      <c r="H210" s="36" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H210" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I210" s="5"/>
+    </row>
+    <row r="211" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A211" s="5">
         <v>210</v>
       </c>
-      <c r="B211" s="34">
+      <c r="B211" s="5">
         <v>31</v>
       </c>
-      <c r="C211" s="34">
+      <c r="C211" s="5">
         <v>7</v>
       </c>
-      <c r="D211" s="34">
+      <c r="D211" s="5">
         <v>10</v>
       </c>
-      <c r="E211" s="34"/>
-      <c r="F211" s="34"/>
-      <c r="G211" s="34">
+      <c r="E211" s="5"/>
+      <c r="F211" s="5"/>
+      <c r="G211" s="5">
         <v>195</v>
       </c>
-      <c r="H211" s="36" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H211" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I211" s="5"/>
+    </row>
+    <row r="212" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A212" s="5">
         <v>211</v>
       </c>
-      <c r="B212" s="34">
+      <c r="B212" s="5">
         <v>31</v>
       </c>
-      <c r="C212" s="34">
+      <c r="C212" s="5">
         <v>11</v>
       </c>
-      <c r="D212" s="34">
+      <c r="D212" s="5">
         <v>15</v>
       </c>
-      <c r="E212" s="34"/>
-      <c r="F212" s="34"/>
-      <c r="G212" s="34">
+      <c r="E212" s="5"/>
+      <c r="F212" s="5"/>
+      <c r="G212" s="5">
         <v>196</v>
       </c>
-      <c r="H212" s="36" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H212" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I212" s="5"/>
+    </row>
+    <row r="213" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A213" s="5">
         <v>212</v>
       </c>
-      <c r="B213" s="34">
+      <c r="B213" s="5">
         <v>31</v>
       </c>
-      <c r="C213" s="34">
+      <c r="C213" s="5">
         <v>16</v>
       </c>
-      <c r="D213" s="34">
+      <c r="D213" s="5">
         <v>20</v>
       </c>
-      <c r="E213" s="34"/>
-      <c r="F213" s="34"/>
-      <c r="G213" s="34">
+      <c r="E213" s="5"/>
+      <c r="F213" s="5"/>
+      <c r="G213" s="5">
         <v>197</v>
       </c>
-      <c r="H213" s="36" t="s">
+      <c r="H213" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I213" s="5"/>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A214" s="5">
+        <v>213</v>
+      </c>
+      <c r="B214" s="36">
+        <v>32</v>
+      </c>
+      <c r="C214" s="36">
+        <v>1</v>
+      </c>
+      <c r="D214" s="36">
+        <v>1</v>
+      </c>
+      <c r="E214" s="36"/>
+      <c r="F214" s="36"/>
+      <c r="G214" s="36">
+        <v>198</v>
+      </c>
+      <c r="H214" s="37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A215" s="5">
+        <v>214</v>
+      </c>
+      <c r="B215" s="36">
+        <v>32</v>
+      </c>
+      <c r="C215" s="36">
+        <v>2</v>
+      </c>
+      <c r="D215" s="36">
+        <v>2</v>
+      </c>
+      <c r="E215" s="36"/>
+      <c r="F215" s="36"/>
+      <c r="G215" s="36">
+        <v>199</v>
+      </c>
+      <c r="H215" s="37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A216" s="5">
+        <v>215</v>
+      </c>
+      <c r="B216" s="36">
+        <v>32</v>
+      </c>
+      <c r="C216" s="36">
+        <v>3</v>
+      </c>
+      <c r="D216" s="36">
+        <v>3</v>
+      </c>
+      <c r="E216" s="36"/>
+      <c r="F216" s="36"/>
+      <c r="G216" s="36">
+        <v>200</v>
+      </c>
+      <c r="H216" s="37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A217" s="5">
+        <v>216</v>
+      </c>
+      <c r="B217" s="36">
+        <v>32</v>
+      </c>
+      <c r="C217" s="36">
+        <v>4</v>
+      </c>
+      <c r="D217" s="36">
+        <v>6</v>
+      </c>
+      <c r="E217" s="36"/>
+      <c r="F217" s="36"/>
+      <c r="G217" s="36">
+        <v>201</v>
+      </c>
+      <c r="H217" s="37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A218" s="5">
+        <v>217</v>
+      </c>
+      <c r="B218" s="36">
+        <v>32</v>
+      </c>
+      <c r="C218" s="36">
+        <v>7</v>
+      </c>
+      <c r="D218" s="36">
+        <v>10</v>
+      </c>
+      <c r="E218" s="36"/>
+      <c r="F218" s="36"/>
+      <c r="G218" s="36">
+        <v>202</v>
+      </c>
+      <c r="H218" s="37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A219" s="5">
+        <v>218</v>
+      </c>
+      <c r="B219" s="36">
+        <v>32</v>
+      </c>
+      <c r="C219" s="36">
+        <v>11</v>
+      </c>
+      <c r="D219" s="36">
+        <v>15</v>
+      </c>
+      <c r="E219" s="36"/>
+      <c r="F219" s="36"/>
+      <c r="G219" s="36">
+        <v>203</v>
+      </c>
+      <c r="H219" s="37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A220" s="5">
+        <v>219</v>
+      </c>
+      <c r="B220" s="36">
+        <v>32</v>
+      </c>
+      <c r="C220" s="36">
+        <v>16</v>
+      </c>
+      <c r="D220" s="36">
+        <v>20</v>
+      </c>
+      <c r="E220" s="36"/>
+      <c r="F220" s="36"/>
+      <c r="G220" s="36">
+        <v>204</v>
+      </c>
+      <c r="H220" s="37" t="s">
         <v>122</v>
       </c>
     </row>
@@ -11660,11 +11977,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G195"/>
+  <dimension ref="A1:G209"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D113" sqref="D113"/>
+      <pane ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E190" sqref="E190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13922,7 +14239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:6" s="46" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="23">
         <v>113</v>
       </c>
@@ -13942,7 +14259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:6" s="46" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="23">
         <v>114</v>
       </c>
@@ -13962,7 +14279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:6" s="46" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="23">
         <v>115</v>
       </c>
@@ -13982,7 +14299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:6" s="46" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="23">
         <v>116</v>
       </c>
@@ -14002,7 +14319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:6" s="46" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="23">
         <v>117</v>
       </c>
@@ -15142,423 +15459,703 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A175" s="31">
+    <row r="175" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A175" s="5">
         <v>174</v>
       </c>
-      <c r="B175" s="31">
+      <c r="B175" s="5">
         <v>170</v>
       </c>
-      <c r="C175" s="33" t="s">
+      <c r="C175" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="D175" s="33" t="s">
+      <c r="D175" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E175" s="31">
+      <c r="E175" s="5">
         <v>100000</v>
       </c>
-      <c r="F175" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A176" s="31">
+      <c r="F175" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A176" s="5">
         <v>175</v>
       </c>
-      <c r="B176" s="31">
+      <c r="B176" s="5">
         <v>171</v>
       </c>
-      <c r="C176" s="33" t="s">
+      <c r="C176" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="D176" s="33" t="s">
+      <c r="D176" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E176" s="31">
+      <c r="E176" s="5">
         <v>30000</v>
       </c>
-      <c r="F176" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A177" s="31">
+      <c r="F176" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A177" s="5">
         <v>176</v>
       </c>
-      <c r="B177" s="31">
+      <c r="B177" s="5">
         <v>172</v>
       </c>
-      <c r="C177" s="33" t="s">
+      <c r="C177" s="20" t="s">
         <v>226</v>
       </c>
-      <c r="D177" s="33" t="s">
+      <c r="D177" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E177" s="31">
+      <c r="E177" s="5">
         <v>10000</v>
       </c>
-      <c r="F177" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A178" s="31">
+      <c r="F177" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A178" s="5">
         <v>177</v>
       </c>
-      <c r="B178" s="31">
+      <c r="B178" s="5">
         <v>173</v>
       </c>
-      <c r="C178" s="33" t="s">
+      <c r="C178" s="20" t="s">
         <v>227</v>
       </c>
-      <c r="D178" s="33" t="s">
+      <c r="D178" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E178" s="31">
+      <c r="E178" s="5">
         <v>3000</v>
       </c>
-      <c r="F178" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A179" s="31">
+      <c r="F178" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A179" s="5">
         <v>178</v>
       </c>
-      <c r="B179" s="31">
+      <c r="B179" s="5">
         <v>174</v>
       </c>
-      <c r="C179" s="33" t="s">
+      <c r="C179" s="20" t="s">
         <v>228</v>
       </c>
-      <c r="D179" s="33" t="s">
+      <c r="D179" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E179" s="31">
+      <c r="E179" s="5">
         <v>2000</v>
       </c>
-      <c r="F179" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A180" s="31">
+      <c r="F179" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A180" s="5">
         <v>179</v>
       </c>
-      <c r="B180" s="31">
+      <c r="B180" s="5">
         <v>175</v>
       </c>
-      <c r="C180" s="33" t="s">
+      <c r="C180" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="D180" s="33" t="s">
+      <c r="D180" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E180" s="31">
+      <c r="E180" s="5">
         <v>1000</v>
       </c>
-      <c r="F180" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A181" s="31">
+      <c r="F180" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A181" s="5">
         <v>180</v>
       </c>
-      <c r="B181" s="31">
+      <c r="B181" s="5">
         <v>176</v>
       </c>
-      <c r="C181" s="33" t="s">
+      <c r="C181" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="D181" s="33" t="s">
+      <c r="D181" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E181" s="31">
+      <c r="E181" s="5">
         <v>500</v>
       </c>
-      <c r="F181" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A182" s="31">
+      <c r="F181" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A182" s="5">
         <v>181</v>
       </c>
-      <c r="B182" s="31">
+      <c r="B182" s="5">
         <v>177</v>
       </c>
-      <c r="C182" s="33" t="s">
+      <c r="C182" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="D182" s="33" t="s">
+      <c r="D182" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E182" s="31">
+      <c r="E182" s="5">
         <v>50000</v>
       </c>
-      <c r="F182" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A183" s="31">
+      <c r="F182" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A183" s="5">
         <v>182</v>
       </c>
-      <c r="B183" s="31">
+      <c r="B183" s="5">
         <v>178</v>
       </c>
-      <c r="C183" s="33" t="s">
+      <c r="C183" s="20" t="s">
         <v>270</v>
       </c>
-      <c r="D183" s="33" t="s">
+      <c r="D183" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E183" s="31">
+      <c r="E183" s="5">
         <v>15000</v>
       </c>
-      <c r="F183" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A184" s="31">
+      <c r="F183" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A184" s="5">
         <v>183</v>
       </c>
-      <c r="B184" s="31">
+      <c r="B184" s="5">
         <v>179</v>
       </c>
-      <c r="C184" s="33" t="s">
+      <c r="C184" s="20" t="s">
         <v>271</v>
       </c>
-      <c r="D184" s="33" t="s">
+      <c r="D184" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E184" s="31">
+      <c r="E184" s="5">
         <v>5000</v>
       </c>
-      <c r="F184" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A185" s="31">
+      <c r="F184" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A185" s="5">
         <v>184</v>
       </c>
-      <c r="B185" s="31">
+      <c r="B185" s="5">
         <v>180</v>
       </c>
-      <c r="C185" s="33" t="s">
+      <c r="C185" s="20" t="s">
         <v>272</v>
       </c>
-      <c r="D185" s="33" t="s">
+      <c r="D185" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E185" s="31">
+      <c r="E185" s="5">
         <v>1500</v>
       </c>
-      <c r="F185" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A186" s="31">
+      <c r="F185" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A186" s="5">
         <v>185</v>
       </c>
-      <c r="B186" s="31">
+      <c r="B186" s="5">
         <v>181</v>
       </c>
-      <c r="C186" s="33" t="s">
+      <c r="C186" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="D186" s="33" t="s">
+      <c r="D186" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E186" s="31">
+      <c r="E186" s="5">
         <v>1000</v>
       </c>
-      <c r="F186" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A187" s="31">
+      <c r="F186" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A187" s="5">
         <v>186</v>
       </c>
-      <c r="B187" s="31">
+      <c r="B187" s="5">
         <v>182</v>
       </c>
-      <c r="C187" s="33" t="s">
+      <c r="C187" s="20" t="s">
         <v>273</v>
       </c>
-      <c r="D187" s="33" t="s">
+      <c r="D187" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E187" s="31">
+      <c r="E187" s="5">
         <v>500</v>
       </c>
-      <c r="F187" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A188" s="31">
+      <c r="F187" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A188" s="5">
         <v>187</v>
       </c>
-      <c r="B188" s="31">
+      <c r="B188" s="5">
         <v>183</v>
       </c>
-      <c r="C188" s="33" t="s">
+      <c r="C188" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="D188" s="33" t="s">
+      <c r="D188" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E188" s="31">
+      <c r="E188" s="5">
         <v>240</v>
       </c>
-      <c r="F188" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A189" s="23">
+      <c r="F188" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A189" s="5">
         <v>188</v>
       </c>
-      <c r="B189" s="23">
+      <c r="B189" s="5">
         <v>184</v>
       </c>
-      <c r="C189" s="24" t="s">
+      <c r="C189" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="D189" s="24" t="s">
+      <c r="D189" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E189" s="23">
+      <c r="E189" s="5">
         <v>100000</v>
       </c>
-      <c r="F189" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A190" s="23">
+      <c r="F189" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A190" s="5">
         <v>189</v>
       </c>
-      <c r="B190" s="23">
+      <c r="B190" s="5">
         <v>185</v>
       </c>
-      <c r="C190" s="24" t="s">
+      <c r="C190" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="D190" s="24" t="s">
+      <c r="D190" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E190" s="23">
+      <c r="E190" s="5">
         <v>30000</v>
       </c>
-      <c r="F190" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A191" s="23">
+      <c r="F190" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A191" s="5">
         <v>190</v>
       </c>
-      <c r="B191" s="23">
+      <c r="B191" s="5">
         <v>186</v>
       </c>
-      <c r="C191" s="24" t="s">
+      <c r="C191" s="20" t="s">
         <v>226</v>
       </c>
-      <c r="D191" s="24" t="s">
+      <c r="D191" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E191" s="23">
+      <c r="E191" s="5">
         <v>10000</v>
       </c>
-      <c r="F191" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A192" s="23">
+      <c r="F191" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A192" s="5">
         <v>191</v>
       </c>
-      <c r="B192" s="23">
+      <c r="B192" s="5">
         <v>187</v>
       </c>
-      <c r="C192" s="24" t="s">
+      <c r="C192" s="20" t="s">
         <v>227</v>
       </c>
-      <c r="D192" s="24" t="s">
+      <c r="D192" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E192" s="23">
+      <c r="E192" s="5">
         <v>3000</v>
       </c>
-      <c r="F192" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A193" s="23">
+      <c r="F192" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A193" s="5">
         <v>192</v>
       </c>
-      <c r="B193" s="23">
+      <c r="B193" s="5">
         <v>188</v>
       </c>
-      <c r="C193" s="24" t="s">
+      <c r="C193" s="20" t="s">
         <v>228</v>
       </c>
-      <c r="D193" s="24" t="s">
+      <c r="D193" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E193" s="23">
+      <c r="E193" s="5">
         <v>2000</v>
       </c>
-      <c r="F193" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A194" s="23">
+      <c r="F193" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A194" s="5">
         <v>193</v>
       </c>
-      <c r="B194" s="23">
+      <c r="B194" s="5">
         <v>189</v>
       </c>
-      <c r="C194" s="24" t="s">
+      <c r="C194" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="D194" s="24" t="s">
+      <c r="D194" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E194" s="23">
+      <c r="E194" s="5">
         <v>1000</v>
       </c>
-      <c r="F194" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A195" s="23">
+      <c r="F194" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A195" s="5">
         <v>194</v>
       </c>
-      <c r="B195" s="23">
+      <c r="B195" s="5">
         <v>190</v>
       </c>
-      <c r="C195" s="24" t="s">
+      <c r="C195" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="D195" s="24" t="s">
+      <c r="D195" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E195" s="23">
+      <c r="E195" s="5">
         <v>500</v>
       </c>
-      <c r="F195" s="23">
+      <c r="F195" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A196" s="5">
+        <v>195</v>
+      </c>
+      <c r="B196" s="5">
+        <v>191</v>
+      </c>
+      <c r="C196" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="D196" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E196" s="5">
+        <v>100000</v>
+      </c>
+      <c r="F196" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A197" s="5">
+        <v>196</v>
+      </c>
+      <c r="B197" s="5">
+        <v>192</v>
+      </c>
+      <c r="C197" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="D197" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E197" s="5">
+        <v>30000</v>
+      </c>
+      <c r="F197" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A198" s="5">
+        <v>197</v>
+      </c>
+      <c r="B198" s="5">
+        <v>193</v>
+      </c>
+      <c r="C198" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="D198" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E198" s="5">
+        <v>10000</v>
+      </c>
+      <c r="F198" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A199" s="5">
+        <v>198</v>
+      </c>
+      <c r="B199" s="5">
+        <v>194</v>
+      </c>
+      <c r="C199" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="D199" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E199" s="5">
+        <v>3000</v>
+      </c>
+      <c r="F199" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A200" s="5">
+        <v>199</v>
+      </c>
+      <c r="B200" s="5">
+        <v>195</v>
+      </c>
+      <c r="C200" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="D200" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E200" s="5">
+        <v>2000</v>
+      </c>
+      <c r="F200" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A201" s="5">
+        <v>200</v>
+      </c>
+      <c r="B201" s="5">
+        <v>196</v>
+      </c>
+      <c r="C201" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="D201" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E201" s="5">
+        <v>1000</v>
+      </c>
+      <c r="F201" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A202" s="5">
+        <v>201</v>
+      </c>
+      <c r="B202" s="5">
+        <v>197</v>
+      </c>
+      <c r="C202" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="D202" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E202" s="5">
+        <v>500</v>
+      </c>
+      <c r="F202" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A203" s="5">
+        <v>202</v>
+      </c>
+      <c r="B203" s="36">
+        <v>198</v>
+      </c>
+      <c r="C203" s="34" t="s">
+        <v>224</v>
+      </c>
+      <c r="D203" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E203" s="36">
+        <v>100000</v>
+      </c>
+      <c r="F203" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A204" s="5">
+        <v>203</v>
+      </c>
+      <c r="B204" s="36">
+        <v>199</v>
+      </c>
+      <c r="C204" s="34" t="s">
+        <v>225</v>
+      </c>
+      <c r="D204" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E204" s="36">
+        <v>30000</v>
+      </c>
+      <c r="F204" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A205" s="5">
+        <v>204</v>
+      </c>
+      <c r="B205" s="36">
+        <v>200</v>
+      </c>
+      <c r="C205" s="34" t="s">
+        <v>226</v>
+      </c>
+      <c r="D205" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E205" s="36">
+        <v>10000</v>
+      </c>
+      <c r="F205" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A206" s="5">
+        <v>205</v>
+      </c>
+      <c r="B206" s="36">
+        <v>201</v>
+      </c>
+      <c r="C206" s="34" t="s">
+        <v>227</v>
+      </c>
+      <c r="D206" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E206" s="36">
+        <v>3000</v>
+      </c>
+      <c r="F206" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A207" s="5">
+        <v>206</v>
+      </c>
+      <c r="B207" s="36">
+        <v>202</v>
+      </c>
+      <c r="C207" s="34" t="s">
+        <v>228</v>
+      </c>
+      <c r="D207" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E207" s="36">
+        <v>2000</v>
+      </c>
+      <c r="F207" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A208" s="5">
+        <v>207</v>
+      </c>
+      <c r="B208" s="36">
+        <v>203</v>
+      </c>
+      <c r="C208" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="D208" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E208" s="36">
+        <v>1000</v>
+      </c>
+      <c r="F208" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A209" s="5">
+        <v>208</v>
+      </c>
+      <c r="B209" s="36">
+        <v>204</v>
+      </c>
+      <c r="C209" s="34" t="s">
+        <v>231</v>
+      </c>
+      <c r="D209" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E209" s="36">
+        <v>500</v>
+      </c>
+      <c r="F209" s="36">
         <v>1</v>
       </c>
     </row>

--- a/config_3.2/rank_server.xlsx
+++ b/config_3.2/rank_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -1836,7 +1836,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
     </sheetView>
@@ -6561,9 +6561,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
+      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6959,8 +6959,8 @@
       <c r="B33" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C33" s="26">
-        <v>1612828800</v>
+      <c r="C33" s="5">
+        <v>1613404799</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">

--- a/config_3.2/rank_server.xlsx
+++ b/config_3.2/rank_server.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="297">
   <si>
     <t>id|</t>
   </si>
@@ -1280,22 +1280,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>50万福利券</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>30万福利券</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>10万福利券</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>2万福利券</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>shop_gold_sum</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1349,6 +1333,18 @@
   </si>
   <si>
     <t>500福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>5万福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>5千福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2千福利券</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -3014,10 +3010,10 @@
         <v>1613404799</v>
       </c>
       <c r="G32" s="27" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="H32" s="26" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="I32" s="26">
         <v>31</v>
@@ -3107,10 +3103,10 @@
         <v>1</v>
       </c>
       <c r="C35" s="34" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D35" s="35" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="E35" s="33">
         <v>1614643200</v>
@@ -12008,8 +12004,8 @@
   <dimension ref="A1:G209"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I189" sqref="I189"/>
+      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E118" sqref="E118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -14058,7 +14054,7 @@
         <v>204</v>
       </c>
       <c r="D103" s="20" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E103" s="5">
         <v>9000</v>
@@ -14275,13 +14271,13 @@
         <v>109</v>
       </c>
       <c r="C114" s="24" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
       <c r="D114" s="24" t="s">
         <v>127</v>
       </c>
       <c r="E114" s="23">
-        <v>500000</v>
+        <v>50000</v>
       </c>
       <c r="F114" s="23">
         <v>1</v>
@@ -14295,13 +14291,13 @@
         <v>110</v>
       </c>
       <c r="C115" s="24" t="s">
-        <v>281</v>
+        <v>210</v>
       </c>
       <c r="D115" s="24" t="s">
         <v>127</v>
       </c>
       <c r="E115" s="23">
-        <v>300000</v>
+        <v>30000</v>
       </c>
       <c r="F115" s="23">
         <v>1</v>
@@ -14315,13 +14311,13 @@
         <v>111</v>
       </c>
       <c r="C116" s="24" t="s">
-        <v>282</v>
+        <v>203</v>
       </c>
       <c r="D116" s="24" t="s">
         <v>127</v>
       </c>
       <c r="E116" s="23">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="F116" s="23">
         <v>1</v>
@@ -14335,13 +14331,13 @@
         <v>112</v>
       </c>
       <c r="C117" s="24" t="s">
-        <v>198</v>
+        <v>295</v>
       </c>
       <c r="D117" s="24" t="s">
         <v>127</v>
       </c>
       <c r="E117" s="23">
-        <v>50000</v>
+        <v>5000</v>
       </c>
       <c r="F117" s="23">
         <v>1</v>
@@ -14355,13 +14351,13 @@
         <v>113</v>
       </c>
       <c r="C118" s="24" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="D118" s="24" t="s">
         <v>127</v>
       </c>
       <c r="E118" s="23">
-        <v>20000</v>
+        <v>2000</v>
       </c>
       <c r="F118" s="23">
         <v>1</v>
@@ -15515,7 +15511,7 @@
         <v>171</v>
       </c>
       <c r="C176" s="20" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D176" s="20" t="s">
         <v>158</v>
@@ -15555,7 +15551,7 @@
         <v>173</v>
       </c>
       <c r="C178" s="20" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D178" s="20" t="s">
         <v>158</v>
@@ -15575,7 +15571,7 @@
         <v>174</v>
       </c>
       <c r="C179" s="20" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D179" s="20" t="s">
         <v>158</v>
@@ -15618,7 +15614,7 @@
         <v>272</v>
       </c>
       <c r="D181" s="20" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E181" s="5">
         <v>240</v>
@@ -15635,10 +15631,10 @@
         <v>177</v>
       </c>
       <c r="C182" s="20" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D182" s="20" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E182" s="5">
         <v>50000</v>
@@ -15655,10 +15651,10 @@
         <v>178</v>
       </c>
       <c r="C183" s="20" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D183" s="20" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E183" s="5">
         <v>15000</v>
@@ -15698,7 +15694,7 @@
         <v>271</v>
       </c>
       <c r="D185" s="20" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E185" s="5">
         <v>1500</v>
@@ -15715,7 +15711,7 @@
         <v>181</v>
       </c>
       <c r="C186" s="20" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D186" s="20" t="s">
         <v>158</v>
@@ -15735,10 +15731,10 @@
         <v>182</v>
       </c>
       <c r="C187" s="20" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D187" s="20" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E187" s="5">
         <v>500</v>
@@ -15758,7 +15754,7 @@
         <v>272</v>
       </c>
       <c r="D188" s="20" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E188" s="5">
         <v>240</v>
